--- a/medicine/Enfance/Vincent_Wagner/Vincent_Wagner.xlsx
+++ b/medicine/Enfance/Vincent_Wagner/Vincent_Wagner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vincent Wagner, né le 23 janvier 1971  à Strasbourg, est illustrateur, dessinateur et auteur de bande dessinée[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincent Wagner, né le 23 janvier 1971  à Strasbourg, est illustrateur, dessinateur et auteur de bande dessinée.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vincent Wagner a été formé à l'Atelier d'illustration de l'École supérieure des arts décoratifs de Strasbourg, sous la direction de l'illustrateur Claude Lapointe. Il a dessiné dans les domaines de la caricature et la publicité, puis il s'essaie aux métiers de conteur, anime de nombreux ateliers scolaires[2] et crée des spectacles de marionnettes pour le théâtre amateur.
-En 2002, il revient à la bande dessinée avec des ouvrages pour les tout-petits, les adolescents ou les adultes et crée des histoires sans paroles entièrement en ombres chinoises. Il reçoit le prix Libbylit (décerné par l'IBBY) 2008 du Meilleur Album pour Trois bons amis (Bayard Jeunesse)[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincent Wagner a été formé à l'Atelier d'illustration de l'École supérieure des arts décoratifs de Strasbourg, sous la direction de l'illustrateur Claude Lapointe. Il a dessiné dans les domaines de la caricature et la publicité, puis il s'essaie aux métiers de conteur, anime de nombreux ateliers scolaires et crée des spectacles de marionnettes pour le théâtre amateur.
+En 2002, il revient à la bande dessinée avec des ouvrages pour les tout-petits, les adolescents ou les adultes et crée des histoires sans paroles entièrement en ombres chinoises. Il reçoit le prix Libbylit (décerné par l'IBBY) 2008 du Meilleur Album pour Trois bons amis (Bayard Jeunesse),.
 Avec le scénariste de bande dessinée Roger Seiter, il signe douze albums, notamment chez Casterman et les éditions du Long Bec. Depuis 2020, il dessine au côté des scénaristes Pierre Boisserie et Didier Convard à la sérieL'Epopée de la Franc-maçonnerie chez Glénat.
-En 2017 est publiée sa bande dessinée Snaergard[5]. Pour La Revue des livres pour enfants, « Dans une Scandinavie médiévale, l'histoire d'une amitié interdite entre les fils de deux seigneurs rivaux dont l'un a exterminé la famille de l'autre. [...] Dans une nature sauvage et enneigée somptueusement dessinée dans un grand format, un récit plein de la fureur d'un fils pour un père violent[6] ».
+En 2017 est publiée sa bande dessinée Snaergard. Pour La Revue des livres pour enfants, « Dans une Scandinavie médiévale, l'histoire d'une amitié interdite entre les fils de deux seigneurs rivaux dont l'un a exterminé la famille de l'autre. [...] Dans une nature sauvage et enneigée somptueusement dessinée dans un grand format, un récit plein de la fureur d'un fils pour un père violent ».
 </t>
         </is>
       </c>
@@ -547,11 +561,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bandes dessinées
-Ambroise Paré, le Père de la chirurgie[7], scénario de Pierre Boisserie et Jean-Noël Fabiani-Salmon, éditions Les Arènes BD, 2023
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ambroise Paré, le Père de la chirurgie, scénario de Pierre Boisserie et Jean-Noël Fabiani-Salmon, éditions Les Arènes BD, 2023
 L'Ami Fritz, scénario de Roger Seiter, éditions du Signe, 2012
 Bandits, éditions du Long Bec, 2016
-Cromalin et Cromignonne[8], éditions du Long Bec, 2015
+Cromalin et Cromignonne, éditions du Long Bec, 2015
 Gutenberg et le secret de la Sibylle, scénario de Roger Seiter, éditions du Signe, 2018
 Mysteries, scénario de Roger Seiter
 Seule contre la loi, éditions Casterman, 2006
@@ -560,31 +579,65 @@
 L'Or du Rhin tome 1; L'homme au Masque de cuir, scénario de Roger Seiter, éditions du Long Bec, 2014
 Le Pont des pirates , éditions du Long Bec, 2015
 La Sorcière a le blues, éditions Bayard Jeunesse, 2006
-La Sorcière de Bergheim[9], scénario de Roger Seiter, éditions BF, 2004
+La Sorcière de Bergheim, scénario de Roger Seiter, éditions BF, 2004
 Les Cercles de Lumière, scénario de Pierre Makyo, dessin de Laval Ng, couleurs Vincent Wagner, éditions du Long Bec, 2016
 Ogres et Cie, éditions du Long Bec, 2016
 Saint Nicolas, de l'Orient à l'Occident, scénario de Thierry Wintzner, éditions du Signe, 2003, Prix Gabriel 2004
-Snaergard[6],[5], éditions du Long Bec, 2017, NED éditions Mosquito 2022
+Snaergard éditions du Long Bec, 2017, NED éditions Mosquito 2022
 Nordlys, éditions Mosquito 2024
 Sorcières, scénario de Roger Seiter, édition modifiée de La Sorcière de Bergheim, éditions du Long Bec, 2013
-Sorcières et Magiciens[10], éditions du Long Bec, 2014
+Sorcières et Magiciens, éditions du Long Bec, 2014
 Titouan a perdu sa dent, éditions Bayard Jeunesse, 2010
 Trois bons amis, éditions Bayard Jeunesse, Prix libbylit 2008 du meilleur album, 2007
-Un Eté en enfer[11], scénario de Roger Seiter, encart de Robert Steegmann, éditions du Signe, 2011
+Un Eté en enfer, scénario de Roger Seiter, encart de Robert Steegmann, éditions du Signe, 2011
 Venise hantée, scénario de Roger Seiter
-L'Etrange Mort de Lord Montbarry[12], éditions Emmanuel Proust, 2012
+L'Etrange Mort de Lord Montbarry, éditions Emmanuel Proust, 2012
 L'Intégrale (tomes 1 et 2), éditions EP Media, 2016
 Wild River, scénario de Roger Seiter
 le Raid , éditions Casterman, 2008, éditions BDMust 2020
 la Captive, éditions Casterman, 2009, éditions BDMust 2021
 la Bataille de Babel, éditions Cleopas, 2011, éditions BDMust 2021
-Intégrale[13], éditions du Long Bec, 2015
+Intégrale, éditions du Long Bec, 2015
 L'Epopée de la Franc-maçonnerie, sous la direction de Didier Convard
-Tome 3. Le Mot du Maçon[14], scénario de Pierre Boisserie, éditions Glénat, 2020
-Tome 5. Le Compas et le Tomahawk[15], scénario de Didier Convard, éditions Glénat, 2021
-Tome 9. Destruction[16], scénario de Pierre Boisserie, éditions Glénat, 2023
-Illustration Jeunesse
-C'est moi, Guignol !, texte de Bertrand Solet, éditions du Bastberg, 2001
+Tome 3. Le Mot du Maçon, scénario de Pierre Boisserie, éditions Glénat, 2020
+Tome 5. Le Compas et le Tomahawk, scénario de Didier Convard, éditions Glénat, 2021
+Tome 9. Destruction, scénario de Pierre Boisserie, éditions Glénat, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vincent_Wagner</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Wagner</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustration Jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C'est moi, Guignol !, texte de Bertrand Solet, éditions du Bastberg, 2001
 L'Enfant Fleur, éditions Hatier Éducation, 2009
 Gare au hibou !, éditions Callicéphale, 2001
 Hansel et Gretel, d'après les frères Grimm, éditions du Bastberg, 2002
@@ -594,17 +647,85 @@
 Le Peigne magique, texte de Pierre-Yves Jego, éditions EDDIF/UNICEF, 1994
 Le Roi Carnaval, texte de Muriel Carminati, éditions Callicéphale, 2002
 Le Singe et l'émeraude, texte de Muriel Carminati, éditions Bayard Jeunesse, 2008
-Le Théâtre des Légendes d'Alsace, textes d'Eugène Santangelo, ID éditions, 2020
-Illustrations de romans jeunesse
-Au Royaume des Moustaches, roman de Roland Fuentès, éditions Rageot, 2012
+Le Théâtre des Légendes d'Alsace, textes d'Eugène Santangelo, ID éditions, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vincent_Wagner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Wagner</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrations de romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Au Royaume des Moustaches, roman de Roland Fuentès, éditions Rageot, 2012
 Bam Bam Slam, roman de Cathy Ollier, éditions Le Crayon à roulettes, 2023
 Les Cygnes sauvages, roman d'après Hans Christian Andersen, éditions Rageot, 2013
-La Dragonne de minuit[17], roman d'Agnès Laroche, éditions Rageot, 2011
-Météorite[18], roman de Pierre Bottero, éditions Rageot, 2009
+La Dragonne de minuit, roman d'Agnès Laroche, éditions Rageot, 2011
+Météorite, roman de Pierre Bottero, éditions Rageot, 2009
 La Princesse et la rose bleue, roman d'Annie Caldirac, éditions Rageot, 2011
-Une Sorcière à la maison[19], roman de Véronique Petit, éditions Rageot, 2006
-Théâtres d'images (kamishibaïs)
-L'Enfant Fleur, éditions Callicéphale, 2002
+Une Sorcière à la maison, roman de Véronique Petit, éditions Rageot, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vincent_Wagner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Wagner</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Théâtres d'images (kamishibaïs)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Enfant Fleur, éditions Callicéphale, 2002
 Gare au hibou !, éditions Callicéphale, 2001
 Gare au hibou ! NED, éditions Callicéphale, 2021
 Le Joueur de flûte de Hameln, éditions Callicéphale, 2010
@@ -614,64 +735,68 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Vincent_Wagner</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Vincent_Wagner</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Marionnettes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La Forêt des Songes, spectacle d'ombres chinoises. Confection des marionnettes et mise en scène Vincent Wagner, 1998
-Ubu Roi[20], spectacle de marionnette, d'après la pièce d'Alfred Jarry. Confection des marionnettes et mise en scène Vincent Wagner, 2016</t>
+Ubu Roi, spectacle de marionnette, d'après la pièce d'Alfred Jarry. Confection des marionnettes et mise en scène Vincent Wagner, 2016</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Vincent_Wagner</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Vincent_Wagner</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix Libbylit (décerné par l'IBBY) 2008 du meilleur album pour Trois bons amis[3],[4]</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prix Libbylit (décerné par l'IBBY) 2008 du meilleur album pour Trois bons amis,</t>
         </is>
       </c>
     </row>
